--- a/Algoritmia/tables/lab2/table1.xlsx
+++ b/Algoritmia/tables/lab2/table1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\University\Algoritmia\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Documents\Git\University\Algoritmia\tables\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,13 +29,13 @@
     <t>n</t>
   </si>
   <si>
-    <t>loop2(ms)</t>
+    <t>loop2(micros)</t>
   </si>
   <si>
-    <t>loop3(ms)</t>
+    <t>loop3(micros)</t>
   </si>
   <si>
-    <t>loop2(ms)/loop3(ms)</t>
+    <t>loop2(micros)/loop3(micros)</t>
   </si>
 </sst>
 </file>
@@ -43,11 +43,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,14 +77,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,7 +127,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -109,63 +138,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>implementation constant</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -174,6 +147,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loop2(micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -254,54 +238,202 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$17</c:f>
+              <c:f>Sheet1!$C$3:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.98936170212765961</c:v>
+                  <c:v>9.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90384615384615397</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91794871794871791</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99141630901287547</c:v>
+                  <c:v>1.155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98223294582145215</c:v>
+                  <c:v>4.4779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9964991530208922</c:v>
+                  <c:v>17.648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99572649572649585</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.005964912280702</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.018418688230009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.97513751375137525</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.221083291323587</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4700272479564032</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1192281185389388</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1023251763476443</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0993000874890639</c:v>
+                  <c:v>6.9900000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>286.7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>1133.5</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>21800</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>107900</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>324800</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0">
+                  <c:v>1265800</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>5026000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loop3(micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.156</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>1113</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>4545</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>17853</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>73400</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0">
+                  <c:v>290200</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0">
+                  <c:v>1148300</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0">
+                  <c:v>4572000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230893536"/>
-        <c:axId val="230893928"/>
+        <c:axId val="2035540832"/>
+        <c:axId val="2035538112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230893536"/>
+        <c:axId val="2035540832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -374,15 +506,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230893928"/>
+        <c:crossAx val="2035538112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230893928"/>
+        <c:axId val="2035538112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +534,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -436,10 +568,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230893536"/>
+        <c:crossAx val="2035540832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -451,6 +583,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -477,7 +641,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -491,7 +655,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -503,31 +667,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>loop2</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -554,7 +693,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -567,6 +706,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>loop2(micros)/loop3(micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -647,54 +797,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$17</c:f>
+              <c:f>Sheet1!$E$3:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>9.2999999999999997E-5</c:v>
+                  <c:v>0.98936170212765961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4100000000000001E-4</c:v>
+                  <c:v>0.90384615384615374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5799999999999997E-4</c:v>
+                  <c:v>0.91794871794871791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.155E-3</c:v>
+                  <c:v>0.99141630901287547</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4780000000000002E-3</c:v>
+                  <c:v>0.98223294582145193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7648E-2</c:v>
+                  <c:v>0.99649915302089209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9900000000000004E-2</c:v>
+                  <c:v>0.99572649572649585</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28670000000000001</c:v>
+                  <c:v>1.0059649122807017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1335</c:v>
+                  <c:v>1.018418688230009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4320000000000004</c:v>
+                  <c:v>0.97513751375137514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.8</c:v>
+                  <c:v>1.2210832913235872</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107.9</c:v>
+                  <c:v>1.4700272479564032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>324.8</c:v>
+                  <c:v>1.1192281185389386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1265.8</c:v>
+                  <c:v>1.1023251763476443</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5026</c:v>
+                  <c:v>1.0993000874890639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,11 +859,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="283152224"/>
-        <c:axId val="283151832"/>
+        <c:axId val="94262720"/>
+        <c:axId val="2003826176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="283152224"/>
+        <c:axId val="94262720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,15 +917,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283151832"/>
+        <c:crossAx val="2003826176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="283151832"/>
+        <c:axId val="2003826176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -795,7 +945,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -829,10 +979,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="283152224"/>
+        <c:crossAx val="94262720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -870,400 +1020,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>loop3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$3:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000000</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>9.3999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.56E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.165E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5589999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.771E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0199999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.113</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="General">
-                  <c:v>4.5449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>17.853000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>73.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>290.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1148.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4572</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="343306208"/>
-        <c:axId val="343305816"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="343306208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343305816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="343305816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000000" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343306208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1354,46 +1111,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2426,540 +2143,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2976,20 +2177,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302398</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>557893</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3004,41 +2205,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3302,288 +2473,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <f>93/1000000</f>
-        <v>9.2999999999999997E-5</v>
-      </c>
-      <c r="D3" s="2">
-        <f>94/1000000</f>
-        <v>9.3999999999999994E-5</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3">
+        <f>93/1000</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f>94/1000</f>
+        <v>9.4E-2</v>
+      </c>
+      <c r="E3" s="3">
         <f>C3/D3</f>
         <v>0.98936170212765961</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4">
+    <row r="4" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <f>141/1000000</f>
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <f>156/1000000</f>
-        <v>1.56E-4</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="3">
+        <f>141/1000</f>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <f>156/1000</f>
+        <v>0.156</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E17" si="0">C4/D4</f>
-        <v>0.90384615384615397</v>
+        <v>0.90384615384615374</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
-        <f>358/1000000</f>
-        <v>3.5799999999999997E-4</v>
-      </c>
-      <c r="D5" s="2">
-        <f>390/1000000</f>
-        <v>3.8999999999999999E-4</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3">
+        <f>358</f>
+        <v>358</v>
+      </c>
+      <c r="D5" s="3">
+        <f>390</f>
+        <v>390</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>0.91794871794871791</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="6" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <f>POWER(2,3)</f>
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <f>1155/1000000</f>
-        <v>1.155E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <f>1165/1000000</f>
-        <v>1.165E-3</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="3">
+        <f>1155/1000</f>
+        <v>1.155</v>
+      </c>
+      <c r="D6" s="3">
+        <f>1165/1000</f>
+        <v>1.165</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0.99141630901287547</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+    <row r="7" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <f t="shared" ref="B7:B17" si="1">B6*2</f>
         <v>16</v>
       </c>
-      <c r="C7" s="2">
-        <f>4478/1000000</f>
-        <v>4.4780000000000002E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <f>4559/1000000</f>
-        <v>4.5589999999999997E-3</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3">
+        <f>4478/1000</f>
+        <v>4.4779999999999998</v>
+      </c>
+      <c r="D7" s="3">
+        <f>4559/1000</f>
+        <v>4.5590000000000002</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>0.98223294582145215</v>
+        <v>0.98223294582145193</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C8" s="2">
-        <f>17648/1000000</f>
-        <v>1.7648E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <f>17710/1000000</f>
-        <v>1.771E-2</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3">
+        <f>17648/1000</f>
+        <v>17.648</v>
+      </c>
+      <c r="D8" s="3">
+        <f>17710/1000</f>
+        <v>17.71</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>0.9964991530208922</v>
+        <v>0.99649915302089209</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
+    <row r="9" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <f>699/10000</f>
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <f>702/10000</f>
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>0.99572649572649585</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
+    <row r="10" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="C10" s="2">
-        <f>2867/10000</f>
-        <v>0.28670000000000001</v>
+        <f>2867/10</f>
+        <v>286.7</v>
       </c>
       <c r="D10" s="2">
-        <f>285/1000</f>
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E10" s="2">
+        <f>285</f>
+        <v>285</v>
+      </c>
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>1.005964912280702</v>
+        <v>1.0059649122807017</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
+    <row r="11" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
       <c r="C11" s="2">
-        <f>11335/10000</f>
-        <v>1.1335</v>
+        <f>11335/10</f>
+        <v>1133.5</v>
       </c>
       <c r="D11" s="2">
-        <f>1113/1000</f>
-        <v>1.113</v>
-      </c>
-      <c r="E11" s="2">
+        <f>1113</f>
+        <v>1113</v>
+      </c>
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>1.018418688230009</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="C12" s="2">
-        <f>4432/1000</f>
-        <v>4.4320000000000004</v>
-      </c>
-      <c r="D12">
-        <f>4545/1000</f>
-        <v>4.5449999999999999</v>
-      </c>
-      <c r="E12" s="2">
+        <f>4432</f>
+        <v>4432</v>
+      </c>
+      <c r="D12" s="2">
+        <f>4545</f>
+        <v>4545</v>
+      </c>
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>0.97513751375137525</v>
+        <v>0.97513751375137514</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="C13" s="2">
-        <v>21.8</v>
+        <v>21800</v>
       </c>
       <c r="D13" s="2">
-        <f>17853/1000</f>
-        <v>17.853000000000002</v>
-      </c>
-      <c r="E13" s="2">
+        <f>17853</f>
+        <v>17853</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>1.221083291323587</v>
+        <v>1.2210832913235872</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+    <row r="14" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="C14" s="2">
-        <v>107.9</v>
+        <v>107900</v>
       </c>
       <c r="D14" s="2">
-        <f>734/10</f>
-        <v>73.400000000000006</v>
-      </c>
-      <c r="E14" s="2">
+        <f>73400</f>
+        <v>73400</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>1.4700272479564032</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+    <row r="15" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="C15" s="2">
-        <v>324.8</v>
+        <v>324800</v>
       </c>
       <c r="D15" s="2">
-        <f>2902/10</f>
-        <v>290.2</v>
-      </c>
-      <c r="E15" s="2">
+        <f>290200</f>
+        <v>290200</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>1.1192281185389388</v>
+        <v>1.1192281185389386</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
+    <row r="16" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>8192</v>
       </c>
       <c r="C16" s="2">
-        <v>1265.8</v>
+        <v>1265800</v>
       </c>
       <c r="D16" s="2">
-        <f>11483/10</f>
-        <v>1148.3</v>
-      </c>
-      <c r="E16" s="2">
+        <f>1148300</f>
+        <v>1148300</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>1.1023251763476443</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
+    <row r="17" spans="2:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>16384</v>
       </c>
       <c r="C17" s="2">
-        <v>5026</v>
+        <v>5026000</v>
       </c>
       <c r="D17" s="2">
-        <v>4572</v>
-      </c>
-      <c r="E17" s="2">
+        <v>4572000</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>1.0993000874890639</v>
       </c>
